--- a/src/utils/sxsyzlzq/friends/jiaoshou/zz_js_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/jiaoshou/zz_js_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="12255" firstSheet="2"/>
+    <workbookView windowWidth="16020" windowHeight="12015" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="帝国" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>名称</t>
   </si>
@@ -49,9 +49,6 @@
     <t>天使琼浆</t>
   </si>
   <si>
-    <t>圣殿弩手</t>
-  </si>
-  <si>
     <t>增援战线</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>蓝色卡等：</t>
   </si>
   <si>
+    <t>传记·钢铁守卫</t>
+  </si>
+  <si>
     <t>四芒军旗</t>
   </si>
   <si>
-    <t>传记·钢铁守卫</t>
-  </si>
-  <si>
     <t>圣殿御卫</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
     <t>正阳大主教·伊恩</t>
   </si>
   <si>
+    <t>炫目天使·蕾娜</t>
+  </si>
+  <si>
     <t>钢铁统帅·雷蒙德</t>
   </si>
   <si>
@@ -136,9 +136,6 @@
     <t>请示隐秘者</t>
   </si>
   <si>
-    <t>隐形术</t>
-  </si>
-  <si>
     <t>破魔系教授</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
   </si>
   <si>
     <t>隐秘卡等：</t>
-  </si>
-  <si>
-    <t>长耳庄巧姑</t>
   </si>
   <si>
     <t>太极剑法</t>
@@ -1153,8 +1147,8 @@
   <sheetPr/>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1227,7 +1221,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1235,45 +1229,45 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>20</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C10" s="1">
+        <f>AVERAGE(C2:C7)</f>
+        <v>19</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1">
-        <f>AVERAGE(C2:C8)</f>
-        <v>19</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
@@ -1291,10 +1285,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1302,7 +1296,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
         <v>20</v>
@@ -1324,10 +1318,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1338,18 +1332,18 @@
         <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1364,15 +1358,9 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2">
-        <v>4</v>
-      </c>
-      <c r="C22" s="2">
-        <v>14</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2"/>
@@ -1380,20 +1368,26 @@
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2">
+        <f>AVERAGE(C13:C21)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="2">
-        <f>AVERAGE(C14:C22)</f>
-        <v>17.6666666666667</v>
+      <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1401,7 +1395,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" s="3">
         <v>19</v>
@@ -1415,7 +1409,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1423,10 +1417,10 @@
         <v>23</v>
       </c>
       <c r="B30" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1434,7 +1428,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" s="3">
         <v>19</v>
@@ -1445,10 +1439,10 @@
         <v>25</v>
       </c>
       <c r="B32" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1459,7 +1453,7 @@
         <v>8</v>
       </c>
       <c r="C33" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1474,14 +1468,14 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C36" s="3">
-        <f>AVERAGE(C28:C33)</f>
-        <v>18.3333333333333</v>
+        <f>AVERAGE(C27:C33)</f>
+        <v>18.8571428571429</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1492,15 +1486,15 @@
         <v>29</v>
       </c>
       <c r="C39" s="4">
-        <f>AVERAGE(C2:C8,C14:C22,C28:C33)</f>
-        <v>18.2727272727273</v>
+        <f>AVERAGE(C2:C7,C13:C21,C27:C33)</f>
+        <v>18.5454545454545</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C11 C39" formulaRange="1"/>
+    <ignoredError sqref="C39 C10" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1511,7 +1505,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1540,7 +1534,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1551,7 +1545,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1567,24 +1561,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1611,7 +1605,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -1621,53 +1615,53 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C9)</f>
-        <v>13.25</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>13</v>
-      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C2:C10)</f>
+        <v>13.3333333333333</v>
+      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2">
         <v>2</v>
@@ -1678,18 +1672,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
@@ -1700,7 +1694,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2">
         <v>7</v>
@@ -1721,25 +1715,25 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2">
-        <f>AVERAGE(C15:C20)</f>
-        <v>15.3333333333333</v>
+        <f>AVERAGE(C16:C20)</f>
+        <v>16.2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1754,14 +1748,14 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C26:C26)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1769,10 +1763,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C9,C15:C20,C26:C26)</f>
+        <f>AVERAGE(C2:C10,C16:C20,C26:C26)</f>
         <v>14.2666666666667</v>
       </c>
     </row>
@@ -1787,8 +1781,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1811,18 +1805,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1833,7 +1827,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1844,7 +1838,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1855,7 +1849,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1866,7 +1860,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -1877,7 +1871,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
@@ -1888,7 +1882,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -1899,7 +1893,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
@@ -1920,20 +1914,20 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C2:C10)</f>
-        <v>13.1111111111111</v>
+        <v>12.3333333333333</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -1944,7 +1938,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -1955,7 +1949,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -1966,7 +1960,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -1987,10 +1981,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C16:C19)</f>
@@ -1999,7 +1993,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
@@ -2010,7 +2004,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -2031,7 +2025,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>27</v>
@@ -2046,11 +2040,11 @@
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C10,C16:C19,C25:C26)</f>
-        <v>12.6666666666667</v>
+        <v>12.2</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/jiaoshou/zz_js_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/jiaoshou/zz_js_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16020" windowHeight="12015" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="15840" windowHeight="10620" firstSheet="2" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="帝国" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
     <t>名称</t>
   </si>
@@ -43,12 +43,15 @@
     <t>圣殿斥候</t>
   </si>
   <si>
-    <t>民兵队长</t>
+    <t>旅行背包</t>
   </si>
   <si>
     <t>天使琼浆</t>
   </si>
   <si>
+    <t>炫目神光</t>
+  </si>
+  <si>
     <t>增援战线</t>
   </si>
   <si>
@@ -64,12 +67,12 @@
     <t>蓝色卡等：</t>
   </si>
   <si>
+    <t>四芒军旗</t>
+  </si>
+  <si>
     <t>传记·钢铁守卫</t>
   </si>
   <si>
-    <t>四芒军旗</t>
-  </si>
-  <si>
     <t>圣殿御卫</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t>圣殿骑士</t>
   </si>
   <si>
+    <t>冲锋装备</t>
+  </si>
+  <si>
     <t>召集护卫</t>
   </si>
   <si>
@@ -106,9 +112,6 @@
     <t>正阳大主教·伊恩</t>
   </si>
   <si>
-    <t>炫目天使·蕾娜</t>
-  </si>
-  <si>
     <t>钢铁统帅·雷蒙德</t>
   </si>
   <si>
@@ -121,19 +124,19 @@
     <t>帝国卡等：</t>
   </si>
   <si>
+    <t>洞悉之眼</t>
+  </si>
+  <si>
     <t>沉重否定</t>
   </si>
   <si>
-    <t>灵能布控</t>
-  </si>
-  <si>
     <t>全数否定</t>
   </si>
   <si>
-    <t>占卜命运</t>
-  </si>
-  <si>
-    <t>请示隐秘者</t>
+    <t>虚化术</t>
+  </si>
+  <si>
+    <t>虚化印记</t>
   </si>
   <si>
     <t>破魔系教授</t>
@@ -142,6 +145,12 @@
     <t>克隆术</t>
   </si>
   <si>
+    <t>咒术系学士</t>
+  </si>
+  <si>
+    <t>神秘学教授</t>
+  </si>
+  <si>
     <t>学仆-脉冲型</t>
   </si>
   <si>
@@ -151,6 +160,9 @@
     <t>米拉方舟</t>
   </si>
   <si>
+    <t>No.8雷鸣·泰拉德</t>
+  </si>
+  <si>
     <t>No.2时光·米拉</t>
   </si>
   <si>
@@ -160,9 +172,6 @@
     <t>太极剑法</t>
   </si>
   <si>
-    <t>飓风术</t>
-  </si>
-  <si>
     <t>连击</t>
   </si>
   <si>
@@ -176,6 +185,9 @@
   </si>
   <si>
     <t>灵龟神丹</t>
+  </si>
+  <si>
+    <t>神机玄女·轩</t>
   </si>
   <si>
     <t>悟能禅杖</t>
@@ -818,7 +830,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,6 +844,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1145,10 +1160,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1185,10 +1200,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1207,7 +1222,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>20</v>
@@ -1221,7 +1236,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1229,45 +1244,45 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1">
-        <f>AVERAGE(C2:C7)</f>
-        <v>19</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>20</v>
-      </c>
+      <c r="C11" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>19.1428571428571</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
@@ -1277,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1285,7 +1300,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2">
         <v>20</v>
@@ -1296,7 +1311,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2">
         <v>20</v>
@@ -1318,10 +1333,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1329,76 +1344,76 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
       </c>
       <c r="C21" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="2">
-        <f>AVERAGE(C13:C21)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="3">
-        <v>3</v>
-      </c>
-      <c r="C27" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="3">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3">
-        <v>19</v>
+      <c r="C26" s="2">
+        <f>AVERAGE(C14:C23)</f>
+        <v>18.3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1406,10 +1421,10 @@
         <v>22</v>
       </c>
       <c r="B29" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1417,7 +1432,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="3">
         <v>19</v>
@@ -1428,10 +1443,10 @@
         <v>24</v>
       </c>
       <c r="B31" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C31" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1439,7 +1454,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" s="3">
         <v>20</v>
@@ -1450,16 +1465,22 @@
         <v>26</v>
       </c>
       <c r="B33" s="3">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="3">
         <v>8</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C34" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3"/>
@@ -1467,34 +1488,39 @@
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="3">
-        <f>AVERAGE(C27:C33)</f>
-        <v>18.8571428571429</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="4" t="s">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C37" s="3">
+        <f>AVERAGE(C29:C34)</f>
+        <v>19.1666666666667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="4">
-        <f>AVERAGE(C2:C7,C13:C21,C27:C33)</f>
-        <v>18.5454545454545</v>
+      <c r="B40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="4">
+        <f>AVERAGE(C2:C8,C14:C23,C29:C34)</f>
+        <v>18.7826086956522</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C39 C10" formulaRange="1"/>
+    <ignoredError sqref="C11 C40" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1504,8 +1530,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1528,29 +1554,29 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1561,121 +1587,121 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>12</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <f>AVERAGE(C2:C10)</f>
-        <v>13.3333333333333</v>
-      </c>
-      <c r="D13" s="2"/>
+        <f>AVERAGE(C2:C7)</f>
+        <v>14.8333333333333</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
         <v>16</v>
@@ -1683,25 +1709,19 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="2">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2">
-        <v>18</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
@@ -1709,25 +1729,31 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C16:C20)</f>
-        <v>16.2</v>
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE(C13:C19)</f>
+        <v>15.1428571428571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5">
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -1748,26 +1774,26 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" s="3">
-        <f>AVERAGE(C26:C26)</f>
+        <f>AVERAGE(C25:C26)</f>
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C10,C16:C20,C26:C26)</f>
-        <v>14.2666666666667</v>
+        <f>AVERAGE(C2:C7,C13:C19,C25:C26)</f>
+        <v>14.7333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1781,8 +1807,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1805,7 +1831,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1816,7 +1842,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1827,7 +1853,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1838,40 +1864,40 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
@@ -1882,7 +1908,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -1892,42 +1918,42 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1">
-        <v>12</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1">
-        <f>AVERAGE(C2:C10)</f>
-        <v>12.3333333333333</v>
-      </c>
-      <c r="D13" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <f>AVERAGE(C2:C9)</f>
+        <v>12.5</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -1938,7 +1964,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -1949,7 +1975,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -1959,15 +1985,9 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2">
-        <v>12</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
@@ -1975,36 +1995,42 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C16:C19)</f>
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2">
+        <f>AVERAGE(C15:C18)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -2025,26 +2051,26 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" s="3">
-        <f>AVERAGE(C25:C26)</f>
-        <v>12</v>
+        <f>AVERAGE(C24:C26)</f>
+        <v>12.3333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C10,C16:C19,C25:C26)</f>
-        <v>12.2</v>
+        <f>AVERAGE(C2:C9,C15:C18,C24:C26)</f>
+        <v>12.3333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/jiaoshou/zz_js_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/jiaoshou/zz_js_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15840" windowHeight="10620" firstSheet="2" activeTab="1"/>
+    <workbookView windowWidth="10410" windowHeight="9840" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="帝国" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>名称</t>
   </si>
@@ -40,18 +40,9 @@
     <t>卡等</t>
   </si>
   <si>
-    <t>圣殿斥候</t>
-  </si>
-  <si>
-    <t>旅行背包</t>
-  </si>
-  <si>
     <t>天使琼浆</t>
   </si>
   <si>
-    <t>炫目神光</t>
-  </si>
-  <si>
     <t>增援战线</t>
   </si>
   <si>
@@ -73,27 +64,18 @@
     <t>传记·钢铁守卫</t>
   </si>
   <si>
-    <t>圣殿御卫</t>
-  </si>
-  <si>
-    <t>白袍主教</t>
-  </si>
-  <si>
     <t>圣殿骑士</t>
   </si>
   <si>
-    <t>冲锋装备</t>
-  </si>
-  <si>
     <t>召集护卫</t>
   </si>
   <si>
+    <t>阳炎坠落</t>
+  </si>
+  <si>
     <t>夺取阵地</t>
   </si>
   <si>
-    <t>阳炎坠落</t>
-  </si>
-  <si>
     <t>紫色卡等：</t>
   </si>
   <si>
@@ -112,6 +94,9 @@
     <t>正阳大主教·伊恩</t>
   </si>
   <si>
+    <t>炫目天使·蕾娜</t>
+  </si>
+  <si>
     <t>钢铁统帅·雷蒙德</t>
   </si>
   <si>
@@ -124,19 +109,25 @@
     <t>帝国卡等：</t>
   </si>
   <si>
-    <t>洞悉之眼</t>
-  </si>
-  <si>
     <t>沉重否定</t>
   </si>
   <si>
+    <t>灵能布控</t>
+  </si>
+  <si>
     <t>全数否定</t>
   </si>
   <si>
     <t>虚化术</t>
   </si>
   <si>
-    <t>虚化印记</t>
+    <t>占卜命运</t>
+  </si>
+  <si>
+    <t>请示隐秘者</t>
+  </si>
+  <si>
+    <t>隐形术</t>
   </si>
   <si>
     <t>破魔系教授</t>
@@ -148,9 +139,6 @@
     <t>咒术系学士</t>
   </si>
   <si>
-    <t>神秘学教授</t>
-  </si>
-  <si>
     <t>学仆-脉冲型</t>
   </si>
   <si>
@@ -160,28 +148,46 @@
     <t>米拉方舟</t>
   </si>
   <si>
-    <t>No.8雷鸣·泰拉德</t>
-  </si>
-  <si>
     <t>No.2时光·米拉</t>
   </si>
   <si>
     <t>隐秘卡等：</t>
   </si>
   <si>
+    <t>飓风术</t>
+  </si>
+  <si>
+    <t>明月心</t>
+  </si>
+  <si>
     <t>太极剑法</t>
   </si>
   <si>
     <t>连击</t>
   </si>
   <si>
+    <t>铁山靠</t>
+  </si>
+  <si>
+    <t>明月曲</t>
+  </si>
+  <si>
     <t>风卷残云</t>
   </si>
   <si>
+    <t>扫叶僧</t>
+  </si>
+  <si>
     <t>墨轩隐士</t>
   </si>
   <si>
     <t>蟠桃会</t>
+  </si>
+  <si>
+    <t>萌化术</t>
+  </si>
+  <si>
+    <t>万物之灵</t>
   </si>
   <si>
     <t>灵龟神丹</t>
@@ -830,7 +836,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -844,9 +850,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1160,10 +1163,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1189,7 +1192,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>20</v>
@@ -1200,10 +1203,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1211,10 +1214,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1222,74 +1225,74 @@
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <f>AVERAGE(C2:C5)</f>
+        <v>19.25</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C13" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1">
-        <f>AVERAGE(C2:C8)</f>
-        <v>19.1428571428571</v>
-      </c>
-      <c r="D11" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2">
         <v>20</v>
@@ -1300,10 +1303,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1311,221 +1314,432 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2">
-        <v>20</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
-        <v>3</v>
-      </c>
-      <c r="C18" s="2">
-        <v>20</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2">
+        <f>AVERAGE(C11:C16)</f>
+        <v>17.6666666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
-        <v>3</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B23" s="3">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2">
-        <v>4</v>
-      </c>
-      <c r="C22" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="2">
-        <f>AVERAGE(C14:C23)</f>
-        <v>18.3</v>
-      </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="3">
-        <v>3</v>
-      </c>
-      <c r="C29" s="3">
-        <v>20</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="3">
-        <v>4</v>
-      </c>
-      <c r="C30" s="3">
-        <v>19</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="3">
+        <f>AVERAGE(C22:C28)</f>
+        <v>19.4285714285714</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="3">
-        <v>4</v>
-      </c>
-      <c r="C31" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="3">
-        <v>5</v>
-      </c>
-      <c r="C32" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="3">
-        <v>6</v>
-      </c>
-      <c r="C33" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="3">
-        <v>8</v>
-      </c>
-      <c r="C34" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="3">
-        <f>AVERAGE(C29:C34)</f>
-        <v>19.1666666666667</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="4">
-        <f>AVERAGE(C2:C8,C14:C23,C29:C34)</f>
-        <v>18.7826086956522</v>
+      <c r="C34" s="4">
+        <f>AVERAGE(C2:C5,C11:C16,C22:C28)</f>
+        <v>18.7647058823529</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C11 C40" formulaRange="1"/>
+    <ignoredError sqref="C34 C8" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <f>AVERAGE(C1:C7)</f>
+        <v>14.5714285714286</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2">
+        <f>AVERAGE(C13:C20)</f>
+        <v>15.375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(C26:C26)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C1:C7,C13:C20,C26:C26)</f>
+        <v>15.0625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D32"/>
@@ -1554,29 +1768,29 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1587,18 +1801,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1609,114 +1823,108 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1">
-        <f>AVERAGE(C2:C7)</f>
-        <v>14.8333333333333</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>17</v>
-      </c>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>13.5714285714286</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2">
         <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="2">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2">
-        <v>18</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
@@ -1724,42 +1932,48 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C13:C19)</f>
-        <v>15.1428571428571</v>
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="5">
-        <v>1</v>
-      </c>
-      <c r="C25" s="5">
+        <v>54</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1774,287 +1988,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C25:C26)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C7,C13:C19,C25:C26)</f>
-        <v>14.7333333333333</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C9)</f>
-        <v>12.5</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="2">
-        <f>AVERAGE(C15:C18)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="3">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="3">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="3">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C24:C26)</f>
@@ -2063,14 +2000,14 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C9,C15:C18,C24:C26)</f>
-        <v>12.3333333333333</v>
+        <f>AVERAGE(C2:C8,C14:C18,C24:C26)</f>
+        <v>13.4666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/jiaoshou/zz_js_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/jiaoshou/zz_js_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10410" windowHeight="9840" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="13305" windowHeight="10845" firstSheet="2" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="帝国" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>名称</t>
   </si>
@@ -49,9 +49,6 @@
     <t>田园守望者</t>
   </si>
   <si>
-    <t>光明惩戒</t>
-  </si>
-  <si>
     <t>小计：</t>
   </si>
   <si>
@@ -64,16 +61,28 @@
     <t>传记·钢铁守卫</t>
   </si>
   <si>
+    <t>圣殿御卫</t>
+  </si>
+  <si>
+    <t>白袍主教</t>
+  </si>
+  <si>
     <t>圣殿骑士</t>
   </si>
   <si>
     <t>召集护卫</t>
   </si>
   <si>
-    <t>阳炎坠落</t>
-  </si>
-  <si>
-    <t>夺取阵地</t>
+    <t>田园保卫战</t>
+  </si>
+  <si>
+    <t>圣光主祭</t>
+  </si>
+  <si>
+    <t>惩戒天使</t>
+  </si>
+  <si>
+    <t>禁卫指挥官</t>
   </si>
   <si>
     <t>紫色卡等：</t>
@@ -94,9 +103,6 @@
     <t>正阳大主教·伊恩</t>
   </si>
   <si>
-    <t>炫目天使·蕾娜</t>
-  </si>
-  <si>
     <t>钢铁统帅·雷蒙德</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
     <t>帝国卡等：</t>
   </si>
   <si>
+    <t>学仆-观测型</t>
+  </si>
+  <si>
     <t>沉重否定</t>
   </si>
   <si>
@@ -118,30 +127,27 @@
     <t>全数否定</t>
   </si>
   <si>
-    <t>虚化术</t>
-  </si>
-  <si>
     <t>占卜命运</t>
   </si>
   <si>
-    <t>请示隐秘者</t>
-  </si>
-  <si>
-    <t>隐形术</t>
-  </si>
-  <si>
     <t>破魔系教授</t>
   </si>
   <si>
+    <t>咒术系学士</t>
+  </si>
+  <si>
     <t>克隆术</t>
   </si>
   <si>
-    <t>咒术系学士</t>
+    <t>神秘学教授</t>
   </si>
   <si>
     <t>学仆-脉冲型</t>
   </si>
   <si>
+    <t>幻域秘树</t>
+  </si>
+  <si>
     <t>观星台大预言家</t>
   </si>
   <si>
@@ -157,25 +163,16 @@
     <t>飓风术</t>
   </si>
   <si>
+    <t>太极剑法</t>
+  </si>
+  <si>
     <t>明月心</t>
   </si>
   <si>
-    <t>太极剑法</t>
-  </si>
-  <si>
-    <t>连击</t>
-  </si>
-  <si>
-    <t>铁山靠</t>
-  </si>
-  <si>
     <t>明月曲</t>
   </si>
   <si>
     <t>风卷残云</t>
-  </si>
-  <si>
-    <t>扫叶僧</t>
   </si>
   <si>
     <t>墨轩隐士</t>
@@ -1163,10 +1160,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1217,42 +1214,42 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>20</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C4)</f>
+        <v>19.3333333333333</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
-        <f>AVERAGE(C2:C5)</f>
-        <v>19.25</v>
-      </c>
-      <c r="D8" s="2"/>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
@@ -1270,7 +1267,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2">
         <v>20</v>
@@ -1292,7 +1289,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2">
         <v>20</v>
@@ -1306,7 +1303,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1314,65 +1311,65 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>6</v>
       </c>
       <c r="C19" s="2">
-        <f>AVERAGE(C11:C16)</f>
-        <v>17.6666666666667</v>
-      </c>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="3">
-        <v>3</v>
-      </c>
-      <c r="C22" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="3">
-        <v>4</v>
-      </c>
-      <c r="C23" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="3">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3">
-        <v>18</v>
+      <c r="C22" s="2">
+        <f>AVERAGE(C10:C19)</f>
+        <v>19.1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1380,7 +1377,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
         <v>20</v>
@@ -1391,7 +1388,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
         <v>20</v>
@@ -1402,10 +1399,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1413,51 +1410,73 @@
         <v>22</v>
       </c>
       <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="3">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="3">
         <v>8</v>
       </c>
-      <c r="C28" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3">
+        <v>19</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="3">
-        <f>AVERAGE(C22:C28)</f>
-        <v>19.4285714285714</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="4">
-        <f>AVERAGE(C2:C5,C11:C16,C22:C28)</f>
-        <v>18.7647058823529</v>
+      <c r="C33" s="3">
+        <f>AVERAGE(C25:C30)</f>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="4">
+        <f>AVERAGE(C2:C4,C10:C19,C25:C30)</f>
+        <v>19.2631578947368</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C34 C8" formulaRange="1"/>
+    <ignoredError sqref="C36 C7" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1465,10 +1484,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1480,62 +1499,62 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1">
         <v>2</v>
       </c>
       <c r="C1" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1545,45 +1564,45 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>15</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <f>AVERAGE(C1:C7)</f>
-        <v>14.5714285714286</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="C9" s="1">
+        <f>AVERAGE(C1:C6)</f>
+        <v>15.8333333333333</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
         <v>14</v>
@@ -1591,43 +1610,43 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
         <v>17</v>
@@ -1635,36 +1654,30 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2">
         <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="2">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2">
-        <v>19</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
@@ -1672,32 +1685,32 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C13:C20)</f>
-        <v>15.375</v>
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE(C12:C19)</f>
+        <v>15.875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="3">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3">
-        <v>16</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3"/>
@@ -1705,32 +1718,27 @@
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C26:C26)</f>
+      <c r="A28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3">
+        <f>AVERAGE(C25:C25)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="4">
+        <f>AVERAGE(C1:C6,C12:C19,C25:C25)</f>
         <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C1:C7,C13:C20,C26:C26)</f>
-        <v>15.0625</v>
       </c>
     </row>
   </sheetData>
@@ -1744,8 +1752,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1768,18 +1776,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1790,7 +1798,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1804,10 +1812,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1815,10 +1823,10 @@
         <v>45</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1844,42 +1852,42 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <f>AVERAGE(C2:C8)</f>
-        <v>13.5714285714286</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>17</v>
-      </c>
+      <c r="C12" s="1">
+        <f>AVERAGE(C2:C9)</f>
+        <v>12.25</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
@@ -1890,7 +1898,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -1901,7 +1909,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -1912,7 +1920,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2">
         <v>5</v>
@@ -1933,19 +1941,19 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2">
-        <f>AVERAGE(C14:C18)</f>
-        <v>14</v>
+        <f>AVERAGE(C15:C18)</f>
+        <v>13.25</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="3">
         <v>3</v>
@@ -1956,18 +1964,18 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -1988,26 +1996,26 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C24:C26)</f>
-        <v>12.3333333333333</v>
+        <v>12.6666666666667</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C8,C14:C18,C24:C26)</f>
-        <v>13.4666666666667</v>
+        <f>AVERAGE(C2:C9,C15:C18,C24:C26)</f>
+        <v>12.6</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/jiaoshou/zz_js_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/jiaoshou/zz_js_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13305" windowHeight="10845" firstSheet="2" activeTab="1"/>
+    <workbookView windowWidth="10725" windowHeight="11385" firstSheet="2" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="帝国" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>名称</t>
   </si>
@@ -40,9 +40,15 @@
     <t>卡等</t>
   </si>
   <si>
+    <t>圣殿斥候</t>
+  </si>
+  <si>
     <t>天使琼浆</t>
   </si>
   <si>
+    <t>圣殿弩手</t>
+  </si>
+  <si>
     <t>增援战线</t>
   </si>
   <si>
@@ -55,12 +61,6 @@
     <t>蓝色卡等：</t>
   </si>
   <si>
-    <t>四芒军旗</t>
-  </si>
-  <si>
-    <t>传记·钢铁守卫</t>
-  </si>
-  <si>
     <t>圣殿御卫</t>
   </si>
   <si>
@@ -73,18 +73,6 @@
     <t>召集护卫</t>
   </si>
   <si>
-    <t>田园保卫战</t>
-  </si>
-  <si>
-    <t>圣光主祭</t>
-  </si>
-  <si>
-    <t>惩戒天使</t>
-  </si>
-  <si>
-    <t>禁卫指挥官</t>
-  </si>
-  <si>
     <t>紫色卡等：</t>
   </si>
   <si>
@@ -133,18 +121,15 @@
     <t>破魔系教授</t>
   </si>
   <si>
+    <t>克隆术</t>
+  </si>
+  <si>
     <t>咒术系学士</t>
   </si>
   <si>
-    <t>克隆术</t>
-  </si>
-  <si>
     <t>神秘学教授</t>
   </si>
   <si>
-    <t>学仆-脉冲型</t>
-  </si>
-  <si>
     <t>幻域秘树</t>
   </si>
   <si>
@@ -184,13 +169,7 @@
     <t>萌化术</t>
   </si>
   <si>
-    <t>万物之灵</t>
-  </si>
-  <si>
     <t>灵龟神丹</t>
-  </si>
-  <si>
-    <t>神机玄女·轩</t>
   </si>
   <si>
     <t>悟能禅杖</t>
@@ -1160,10 +1139,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1189,10 +1168,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1200,10 +1179,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1214,53 +1193,53 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
-        <f>AVERAGE(C2:C4)</f>
-        <v>19.3333333333333</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>20</v>
-      </c>
+      <c r="C9" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>21.2</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
@@ -1270,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1281,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1292,7 +1271,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1307,69 +1286,69 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
-        <v>19</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2">
-        <v>16</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2">
+        <f>AVERAGE(C12:C15)</f>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B22" s="3">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C10:C19)</f>
-        <v>19.1</v>
+      <c r="B24" s="3">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1377,10 +1356,10 @@
         <v>19</v>
       </c>
       <c r="B25" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C25" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1388,95 +1367,51 @@
         <v>20</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C26" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="3">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3">
-        <v>18</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="3">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3">
-        <v>20</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(C21:C26)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="3">
-        <v>6</v>
-      </c>
-      <c r="C29" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="3">
-        <v>8</v>
-      </c>
-      <c r="C30" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="3">
-        <f>AVERAGE(C25:C30)</f>
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="4">
-        <f>AVERAGE(C2:C4,C10:C19,C25:C30)</f>
-        <v>19.2631578947368</v>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C6,C12:C15,C21:C26)</f>
+        <v>20.8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C36 C7" formulaRange="1"/>
+    <ignoredError sqref="C9 C32" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1487,7 +1422,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="$A19:$XFD19"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1499,18 +1434,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1">
         <v>2</v>
       </c>
       <c r="C1" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1521,7 +1456,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1532,7 +1467,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1543,18 +1478,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1575,20 +1510,20 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
         <f>AVERAGE(C1:C6)</f>
-        <v>15.8333333333333</v>
+        <v>16.5</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -1599,18 +1534,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -1621,7 +1556,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -1632,10 +1567,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
         <v>17</v>
@@ -1643,10 +1578,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2">
         <v>17</v>
@@ -1654,24 +1589,24 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2">
         <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2">
         <v>7</v>
       </c>
       <c r="C19" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1686,19 +1621,19 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C12:C19)</f>
-        <v>15.875</v>
+        <v>15.625</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3">
         <v>5</v>
@@ -1719,10 +1654,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C28" s="3">
         <f>AVERAGE(C25:C25)</f>
@@ -1731,14 +1666,14 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C31" s="4">
         <f>AVERAGE(C1:C6,C12:C19,C25:C25)</f>
-        <v>16</v>
+        <v>16.1333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1753,7 +1688,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1776,7 +1711,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1787,7 +1722,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1798,7 +1733,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1809,7 +1744,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1820,21 +1755,21 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
         <v>12</v>
@@ -1842,18 +1777,18 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -1863,76 +1798,82 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C9)</f>
-        <v>12.25</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C15" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>14</v>
-      </c>
+      <c r="C11" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1">
+        <f>AVERAGE(C2:C11)</f>
+        <v>12.5</v>
+      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
@@ -1940,42 +1881,36 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="2">
-        <f>AVERAGE(C15:C18)</f>
-        <v>13.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="3">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3">
-        <v>12</v>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE(C17:C19)</f>
+        <v>13.3333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -1996,25 +1931,25 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C29" s="3">
-        <f>AVERAGE(C24:C26)</f>
-        <v>12.6666666666667</v>
+        <f>AVERAGE(C25:C26)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C9,C15:C18,C24:C26)</f>
+        <f>AVERAGE(C2:C11,C17:C19,C25:C26)</f>
         <v>12.6</v>
       </c>
     </row>
